--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -39910,7 +39910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39920,95 +39920,95 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>127</v>
@@ -40016,231 +40016,231 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>122</v>
-      </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>127</v>
@@ -40248,28 +40248,28 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>133</v>
-      </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>127</v>
@@ -40277,842 +40277,845 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
         <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
         <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="s">
         <v>14</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
       <c r="J28" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
         <v>14</v>
       </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>21</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>21</v>
       </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="C33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="C34" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
         <v>21</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="C35" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="C36" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="C37" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="C38" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="C39" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="C43" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="F43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>21</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="C44" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
       <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" t="s">
         <v>14</v>
       </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
       <c r="J44" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="C45" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s">
         <v>14</v>
       </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
       <c r="J45" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -41120,68 +41123,68 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" t="s">
         <v>14</v>
       </c>
-      <c r="H46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="C47" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
       <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s">
         <v>14</v>
       </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -41189,114 +41192,111 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" t="s">
         <v>14</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>21</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="C50" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
         <v>14</v>
       </c>
-      <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="C51" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
+        <v>153</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
         <v>14</v>
       </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
       <c r="J51" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="C52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s">
         <v>14</v>
       </c>
-      <c r="H52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="C53" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="J53" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -41304,19 +41304,19 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -41324,59 +41324,59 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="C56" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" t="s">
         <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="C57" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -41384,16 +41384,16 @@
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -41401,42 +41401,42 @@
     </row>
     <row r="59" spans="1:10">
       <c r="C59" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="C60" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" t="s">
         <v>128</v>
       </c>
-      <c r="E60" t="s">
-        <v>82</v>
-      </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -41444,67 +41444,67 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="C62" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="C63" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" t="s">
         <v>128</v>
       </c>
-      <c r="E63" t="s">
-        <v>100</v>
-      </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="C64" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -41512,30 +41512,30 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
         <v>128</v>
       </c>
-      <c r="E65" t="s">
-        <v>105</v>
-      </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="C66" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
@@ -41543,19 +41543,19 @@
     </row>
     <row r="67" spans="1:10">
       <c r="C67" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
         <v>128</v>
       </c>
-      <c r="E67" t="s">
-        <v>142</v>
-      </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -41563,50 +41563,50 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="C69" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="C70" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -41614,13 +41614,13 @@
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
@@ -41628,19 +41628,19 @@
     </row>
     <row r="72" spans="1:10">
       <c r="C72" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -41648,64 +41648,64 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
         <v>128</v>
       </c>
-      <c r="E74" t="s">
-        <v>98</v>
-      </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
         <v>128</v>
       </c>
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="C76" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
@@ -41716,84 +41716,84 @@
         <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="C78" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
         <v>102</v>
-      </c>
-      <c r="J78" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="C79" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="C80" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="C81" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
         <v>102</v>
-      </c>
-      <c r="J81" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -41801,16 +41801,16 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J82" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -41818,33 +41818,33 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="C84" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -41852,16 +41852,16 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
         <v>128</v>
       </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -41869,13 +41869,13 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
         <v>128</v>
       </c>
-      <c r="E86" t="s">
-        <v>98</v>
-      </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
@@ -41883,36 +41883,36 @@
     </row>
     <row r="87" spans="1:10">
       <c r="C87" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
         <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="C88" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -41920,33 +41920,33 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="J89" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="C90" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
         <v>128</v>
       </c>
-      <c r="E90" t="s">
-        <v>98</v>
-      </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -41954,47 +41954,47 @@
         <v>10</v>
       </c>
       <c r="D91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" t="s">
         <v>128</v>
       </c>
-      <c r="E91" t="s">
-        <v>98</v>
-      </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="C92" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="C93" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -42002,33 +42002,33 @@
     </row>
     <row r="94" spans="1:10">
       <c r="C94" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F94" t="s">
+        <v>91</v>
+      </c>
+      <c r="J94" t="s">
         <v>16</v>
-      </c>
-      <c r="J94" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="C95" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" t="s">
         <v>128</v>
       </c>
-      <c r="E95" t="s">
-        <v>84</v>
-      </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
@@ -42036,84 +42036,84 @@
     </row>
     <row r="96" spans="1:10">
       <c r="C96" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" t="s">
         <v>128</v>
       </c>
-      <c r="E96" t="s">
-        <v>84</v>
-      </c>
       <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" t="s">
         <v>16</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="C97" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="D97" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" t="s">
         <v>128</v>
       </c>
-      <c r="E97" t="s">
-        <v>84</v>
-      </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="C98" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s">
         <v>19</v>
       </c>
-      <c r="D99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" t="s">
-        <v>72</v>
-      </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J99" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
         <v>19</v>
       </c>
-      <c r="D100" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" t="s">
-        <v>72</v>
-      </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -42121,1212 +42121,1230 @@
     </row>
     <row r="101" spans="1:10">
       <c r="C101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
         <v>19</v>
       </c>
-      <c r="D101" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" t="s">
-        <v>97</v>
-      </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="C102" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J102" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="C103" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J103" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" t="s">
         <v>19</v>
       </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-      <c r="E104" t="s">
-        <v>97</v>
-      </c>
       <c r="J104" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="C105" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J105" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="C106" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="C107" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="J107" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="C108" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="J108" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="C109" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J109" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
         <v>19</v>
       </c>
-      <c r="D110" t="s">
-        <v>31</v>
-      </c>
-      <c r="E110" t="s">
-        <v>188</v>
-      </c>
       <c r="J110" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="C111" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J111" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="C112" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="J112" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
         <v>19</v>
       </c>
-      <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" t="s">
-        <v>95</v>
-      </c>
       <c r="J113" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="C114" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E114" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J114" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="C115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" t="s">
         <v>19</v>
       </c>
-      <c r="D115" t="s">
-        <v>126</v>
-      </c>
-      <c r="E115" t="s">
-        <v>95</v>
-      </c>
       <c r="J115" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="C116" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E116" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J116" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" t="s">
-        <v>126</v>
-      </c>
-      <c r="E117" t="s">
-        <v>95</v>
-      </c>
       <c r="J117" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="D118" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="J118" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="D119" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="J119" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="D120" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="J120" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="D121" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="J121" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="D122" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E122" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J122" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="D123" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J123" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="D124" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J124" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="D125" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="D126" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E126" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J126" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="D127" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E127" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="J127" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="D128" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J128" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="D129" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J129" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="D130" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="D131" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E131" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="D132" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E132" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="D133" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J133" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="D134" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="J134" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="D135" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="J135" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="D136" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="J136" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="D137" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="D138" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="D139" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="D140" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E140" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="D141" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="D142" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="D143" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="D144" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E144" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="D145" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="D146" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E146" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="D147" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E147" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="D148" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E148" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="D149" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E149" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="D150" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E150" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="D151" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="D152" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="D153" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="D154" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="D155" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="D156" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="J156" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="D157" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J157" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="D158" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J158" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="E159" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J159" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="E160" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J160" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="E161" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J161" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="E162" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J162" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="E163" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J163" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="E164" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J164" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="E165" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="J165" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="E166" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J166" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="E167" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J167" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="E168" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J168" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="E169" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J169" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="E170" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J170" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="E171" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J171" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="E172" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="J172" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="E173" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="J173" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="E174" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="J174" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="E175" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="J175" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="E176" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="E177" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J177" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="E178" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J178" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="E179" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J179" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="E180" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="E181" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="J181" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="E182" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J182" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="E183" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="J183" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="E184" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="E185" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="J185" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="E186" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J186" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="E187" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J187" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="E188" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="E189" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="E190" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="J190" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:10">
+      <c r="E191" t="s">
+        <v>88</v>
+      </c>
       <c r="J191" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:10">
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
       <c r="J192" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:10">
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
       <c r="J193" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:10">
+      <c r="E194" t="s">
+        <v>61</v>
+      </c>
       <c r="J194" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:10">
+      <c r="E195" t="s">
+        <v>128</v>
+      </c>
       <c r="J195" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:10">
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="J197" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="J198" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="J199" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="J200" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="J201" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="J202" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="J203" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="J204" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="J205" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="J206" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="J207" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="J208" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:10">
       <c r="J209" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="J210" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="J211" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="J212" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="J213" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="J214" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="J215" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="J216" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="J217" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="J218" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="J219" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="J220" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="J221" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="J222" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="J223" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="J224" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="J225" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="J226" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="J227" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="J228" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="J229" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:10">
       <c r="J230" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:10">
       <c r="J231" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="J232" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="J233" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="J234" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:10">
       <c r="J235" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="J236" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="J237" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="J238" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:10">
       <c r="J239" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:10">
       <c r="J240" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="J241" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="J242" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="J243" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -43336,22 +43354,22 @@
     </row>
     <row r="245" spans="1:10">
       <c r="J245" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="J246" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="J247" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="J248" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -43361,52 +43379,22 @@
     </row>
     <row r="250" spans="1:10">
       <c r="J250" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:10">
       <c r="J251" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:10">
       <c r="J252" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="J253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="J254" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="J255" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="J256" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="J257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="J258" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="J259" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
